--- a/biology/Botanique/Promenade_Marie-de-Roumanie/Promenade_Marie-de-Roumanie.xlsx
+++ b/biology/Botanique/Promenade_Marie-de-Roumanie/Promenade_Marie-de-Roumanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La promenade Marie de Roumanie est une voie publique du 7e arrondissement de Paris située sur les quais de la Seine.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est située entre le port de Suffren (côté Seine) et le quai Jacques-Chirac (côté rue). Elle se prolonge, au sud, par la promenade d'Australie.
 La promenade est accessible par la gare du Champ de Mars - Tour Eiffel.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte le nom la reine de Roumanie, Marie de Saxe-Cobourg-Gotha (1875-1938), dite Marie de Roumanie, femme d'une grande personnalité et de force de caractère, qui a réussi à s'imposer en tant que souveraine dans un monde masculin. 
 </t>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La promenade a été nommée en 2019[1] dans le cadre de la féminisation des noms de rues parisiennes[2]. Loïe Fuller, amie de Marie de Roumanie, avait déjà eu une dénomination à Paris[Où ?] dans ce cadre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La promenade a été nommée en 2019 dans le cadre de la féminisation des noms de rues parisiennes. Loïe Fuller, amie de Marie de Roumanie, avait déjà eu une dénomination à Paris[Où ?] dans ce cadre.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La tour Eiffel.</t>
         </is>
